--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.98859999999998</v>
+        <v>-21.13429999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.25849999999999</v>
+        <v>-20.21459999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.084499999999995</v>
+        <v>-7.014799999999997</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.748899999999995</v>
+        <v>-8.607999999999997</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.8166</v>
+        <v>-21.77980000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.1822</v>
+        <v>16.06330000000001</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.36609999999999</v>
+        <v>16.3827</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.473199999999997</v>
+        <v>-8.748799999999999</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,7 +811,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.003900000000003</v>
+        <v>-8.0402</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.082899999999994</v>
+        <v>-7.119699999999995</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.15859999999999</v>
+        <v>-21.98719999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.12069999999997</v>
+        <v>-21.27099999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.14959999999999</v>
+        <v>-21.21319999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.024200000000002</v>
+        <v>-7.9331</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.1266</v>
+        <v>15.73610000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.9871</v>
+        <v>-19.9962</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.195700000000002</v>
+        <v>-8.396299999999998</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.653099999999998</v>
+        <v>-7.725</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.14209999999999</v>
+        <v>17.10349999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1287,10 +1287,10 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.591499999999995</v>
+        <v>-8.4527</v>
       </c>
       <c r="E50" t="n">
-        <v>16.46560000000001</v>
+        <v>16.52660000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.366399999999996</v>
+        <v>-7.342199999999998</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.07619999999999</v>
+        <v>-22.1949</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.40410000000001</v>
+        <v>-22.3051</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.35109999999999</v>
+        <v>-21.33379999999999</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1559,7 +1559,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.739700000000003</v>
+        <v>-7.808400000000006</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.573500000000001</v>
+        <v>-6.445700000000003</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.249800000000005</v>
+        <v>-6.298500000000003</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.924500000000004</v>
+        <v>-8.808100000000003</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.499000000000006</v>
+        <v>-6.565600000000004</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.09970000000002</v>
+        <v>18.16400000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2086,10 +2086,10 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.075099999999997</v>
+        <v>-8.579500000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>16.72029999999999</v>
+        <v>16.46419999999998</v>
       </c>
     </row>
     <row r="98">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.9472</v>
+        <v>-21.83610000000001</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
